--- a/notebook-tests/Seedbox/MINOKAWA - Malabon Census 2020.xlsx
+++ b/notebook-tests/Seedbox/MINOKAWA - Malabon Census 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gender" sheetId="1" r:id="rId1"/>
@@ -320,925 +320,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-PH"/>
-              <a:t>Age Distribution for Malabon Census (2020)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Age Distribution'!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0-9 years</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10-19 years</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20-29 years</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30-39 years</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-49 years</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50-59 years</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60-69 years</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70-79 years</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80+ years</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Age Distribution'!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>72513</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71231</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57183</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45480</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19764</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7486</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2418</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1144533600"/>
-        <c:axId val="-1144540672"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1144533600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1144540672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1144540672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1144533600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1506,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -1654,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1799,7 +880,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
